--- a/GS2.xlsx
+++ b/GS2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\SURP-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB7E038-EAE6-4F3B-8717-F6B054CF093D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF12F9F8-4037-4D95-9F3B-DC9BECAA6AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="227">
   <si>
     <r>
       <rPr>
@@ -2355,334 +2355,6 @@
         <family val="2"/>
       </rPr>
       <t>Elucidate.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Do you think that China’s emergence as one of the largest trading partners of India has adversely against the settlement of the outstanding border problem?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Discuss the contentious issues that have caused the prolonged constitutional logjam in Nepal.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>‘The situation today is far different to that prevalent fifty years back when the Indus Water treaty was seined.’ Highlight the complexity of the current challenges on both sides of the border in this regard. Do you think that a review of the Treaty is in India’s best interests?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Write a short analytical note on Indian Diaspora. How is the “New Diaspora” different from the “Old Diaspora”?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Why have the resource rich African and South Asian countries remained poor of decades? Explain.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Does Putin’s return as President of Russian mark a shift to a confrontationist stance in international diplomacy towards the West?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Compare the significance of IBSA and BRICS in the context of India’s multilateral diplomacy.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>How have the US sanctions against Iran affected India’s bilateral relations with Iran?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>List the Central Asian Republics and identify those of particular strategic and economic importance to India. Examine the opportunities and bottlenecks in enhancing relations with these countries.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Critically examine the security and strategic implications of the so-called 'string of pearls' theory for India.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Compared to the South Asian Free Trade Area (SAFTA), the Bay of Bengal Initiative for Multisectoral Technical and Economic Cooperation Free Trade Area (BIMSTEC FTA) seems to be more promising " Critically evaluate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Subsequent to the Nuclear Suppliers' Group (NSG) waiver in 2008, what are the agreements on nuclear energy that India has signed with different countries?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Trace the progress of India's efforts for a joint. counter-terrorism strategy with China. What are the likely implications of the recent Xinjiang violence on these efforts?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>What are the salient features of the political and economic relationship between India and South Africa?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>"As regards the increasing rates of melting of Arctic Sea ice, the interests of the Arctic Council. nations may not coincide with those of the wider world." Explain.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Is there still a role for the concept of balance of power in contemporary international politics ? Discuss.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Strategic interests seem to be replacing commercial interests for the host country with regard to Cam Ranh Bay." Amplify.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">To what extent has the withdrawal of al-Shabab from Mogadishu given peace a real chance in Somalia?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Assess.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Critically examine the implications of the disintegration of the Soviet Union on India’s security and strategic perspectives. What further responses would you suggest in India’s foreign policy to accommodate these implications.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>How far have Japan’s principles of Hikaku San Gensoku impacted bilateral ties with India?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Assess the contributions of Indian diaspora in the Caribbean.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Do you agree with the view that Israel is a ‘natural ally’ of India?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Examine the recent developments towards the solution of the Bangladesh-Myanmar maritime boundary dispute. What implications do these have for India?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>What are the major capacity-building and reconstruction projects being undertaken by Indian in Afghanistan?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the reason for the recent hike in visa processing fees for certain categories of US visas. What is the likely impact of this hike on India?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Highlight the role of the Indian peacekeeping contingent as part of MONUSCO.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>List the salient features of the Riyadh declaration and the bilateral agreements between India and Saudi Arabia signed earlier this year.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Examine the opportunities for a lasting West Asia peace solution in the context of the ‘historic’ talks started in September 2010.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Has the February agreement between the Sudanese government and the Justice and Equality Movement (JEM) been more successful in ending the strife in Darfur than the Abuja peace agreement of 2006?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Evaluate.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the present status of the Biological Weapons Convention (BWC). What important issues, do you think, need to be taken up at the seventh review conference of the BWC scheduled for 2011?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Comment on the Significance of the Kampala declaration of the International Criminal Court (ICC)</t>
     </r>
   </si>
   <si>
@@ -3270,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3574,7 +3246,7 @@
         <v>2022</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="78" customHeight="1">
@@ -3718,7 +3390,7 @@
         <v>2021</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="96.75" customHeight="1">
@@ -3854,7 +3526,7 @@
         <v>2020</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="96.75" customHeight="1">
@@ -4054,7 +3726,7 @@
         <v>2019</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="78" customHeight="1">
@@ -4118,7 +3790,7 @@
         <v>2018</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="58.5" customHeight="1">
@@ -4262,7 +3934,7 @@
         <v>2017</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="78" customHeight="1">
@@ -4542,7 +4214,7 @@
         <v>2016</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="115.5" customHeight="1">
@@ -4606,7 +4278,7 @@
         <v>2015</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="125.25" customHeight="1">
@@ -4790,7 +4462,7 @@
         <v>2014</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="143.25" customHeight="1">
@@ -5098,252 +4770,128 @@
       </c>
     </row>
     <row r="228" spans="1:2" ht="77.25" customHeight="1">
-      <c r="A228" s="4">
-        <v>2012</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>218</v>
-      </c>
+      <c r="A228" s="4"/>
+      <c r="B228" s="3"/>
     </row>
     <row r="229" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A229" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>219</v>
-      </c>
+      <c r="A229" s="2"/>
+      <c r="B229" s="3"/>
     </row>
     <row r="230" spans="1:2" ht="107.25" customHeight="1">
-      <c r="A230" s="4">
-        <v>2012</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>220</v>
-      </c>
+      <c r="A230" s="4"/>
+      <c r="B230" s="3"/>
     </row>
     <row r="231" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A231" s="4">
-        <v>2012</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="A231" s="4"/>
+      <c r="B231" s="3"/>
     </row>
     <row r="232" spans="1:2" ht="39" customHeight="1">
-      <c r="A232" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>222</v>
-      </c>
+      <c r="A232" s="2"/>
+      <c r="B232" s="3"/>
     </row>
     <row r="233" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A233" s="4">
-        <v>2012</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>223</v>
-      </c>
+      <c r="A233" s="4"/>
+      <c r="B233" s="3"/>
     </row>
     <row r="234" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A234" s="4">
-        <v>2012</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>224</v>
-      </c>
+      <c r="A234" s="4"/>
+      <c r="B234" s="3"/>
     </row>
     <row r="235" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A235" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="A235" s="2"/>
+      <c r="B235" s="3"/>
     </row>
     <row r="236" spans="1:2" ht="78" customHeight="1">
-      <c r="A236" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="A236" s="4"/>
+      <c r="B236" s="3"/>
     </row>
     <row r="237" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A237" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>227</v>
-      </c>
+      <c r="A237" s="4"/>
+      <c r="B237" s="3"/>
     </row>
     <row r="238" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A238" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>228</v>
-      </c>
+      <c r="A238" s="4"/>
+      <c r="B238" s="3"/>
     </row>
     <row r="239" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A239" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>229</v>
-      </c>
+      <c r="A239" s="4"/>
+      <c r="B239" s="3"/>
     </row>
     <row r="240" spans="1:2" ht="78" customHeight="1">
-      <c r="A240" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>230</v>
-      </c>
+      <c r="A240" s="4"/>
+      <c r="B240" s="3"/>
     </row>
     <row r="241" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A241" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>231</v>
-      </c>
+      <c r="A241" s="4"/>
+      <c r="B241" s="3"/>
     </row>
     <row r="242" spans="1:2" ht="78" customHeight="1">
-      <c r="A242" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="A242" s="4"/>
+      <c r="B242" s="3"/>
     </row>
     <row r="243" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A243" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>233</v>
-      </c>
+      <c r="A243" s="4"/>
+      <c r="B243" s="3"/>
     </row>
     <row r="244" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A244" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>234</v>
-      </c>
+      <c r="A244" s="4"/>
+      <c r="B244" s="3"/>
     </row>
     <row r="245" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A245" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>235</v>
-      </c>
+      <c r="A245" s="4"/>
+      <c r="B245" s="5"/>
     </row>
     <row r="246" spans="1:2" ht="97.5" customHeight="1">
-      <c r="A246" s="4">
-        <v>2010</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>236</v>
-      </c>
+      <c r="A246" s="4"/>
+      <c r="B246" s="3"/>
     </row>
     <row r="247" spans="1:2" ht="97.5" customHeight="1">
-      <c r="A247" s="4">
-        <v>2010</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="A247" s="4"/>
+      <c r="B247" s="3"/>
     </row>
     <row r="248" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A248" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>238</v>
-      </c>
+      <c r="A248" s="2"/>
+      <c r="B248" s="3"/>
     </row>
     <row r="249" spans="1:2" ht="39" customHeight="1">
-      <c r="A249" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>239</v>
-      </c>
+      <c r="A249" s="2"/>
+      <c r="B249" s="3"/>
     </row>
     <row r="250" spans="1:2" ht="78" customHeight="1">
-      <c r="A250" s="4">
-        <v>2010</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>240</v>
-      </c>
+      <c r="A250" s="4"/>
+      <c r="B250" s="3"/>
     </row>
     <row r="251" spans="1:2" ht="59.25" customHeight="1">
-      <c r="A251" s="4">
-        <v>2010</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>241</v>
-      </c>
+      <c r="A251" s="4"/>
+      <c r="B251" s="3"/>
     </row>
     <row r="252" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A252" s="4">
-        <v>2010</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>242</v>
-      </c>
+      <c r="A252" s="4"/>
+      <c r="B252" s="3"/>
     </row>
     <row r="253" spans="1:2" ht="39.75" customHeight="1">
-      <c r="A253" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="A253" s="2"/>
+      <c r="B253" s="3"/>
     </row>
     <row r="254" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A254" s="4">
-        <v>2010</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="A254" s="4"/>
+      <c r="B254" s="3"/>
     </row>
     <row r="255" spans="1:2" ht="58.5" customHeight="1">
-      <c r="A255" s="4">
-        <v>2010</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>245</v>
-      </c>
+      <c r="A255" s="4"/>
+      <c r="B255" s="3"/>
     </row>
     <row r="256" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A256" s="4">
-        <v>2010</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>246</v>
-      </c>
+      <c r="A256" s="4"/>
+      <c r="B256" s="5"/>
     </row>
     <row r="257" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A257" s="4">
-        <v>2010</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>247</v>
-      </c>
+      <c r="A257" s="4"/>
+      <c r="B257" s="3"/>
     </row>
     <row r="258" spans="1:2" ht="96.75" customHeight="1">
-      <c r="A258" s="4">
-        <v>2010</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>248</v>
-      </c>
+      <c r="A258" s="4"/>
+      <c r="B258" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
